--- a/pred_ohlcv/54/2019-11-12 SALT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-12 SALT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>15661.7034</v>
+        <v>997.5</v>
       </c>
       <c r="G2" t="n">
-        <v>106.4833333333333</v>
+        <v>106.4</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>110</v>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>5652</v>
+        <v>15661.7034</v>
       </c>
       <c r="G3" t="n">
-        <v>106.55</v>
+        <v>106.4833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>9969.702300000001</v>
+        <v>5652</v>
       </c>
       <c r="G4" t="n">
-        <v>106.6333333333333</v>
+        <v>106.55</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="n">
         <v>111</v>
@@ -498,12 +512,15 @@
         <v>110</v>
       </c>
       <c r="F5" t="n">
-        <v>1942</v>
+        <v>9969.702300000001</v>
       </c>
       <c r="G5" t="n">
-        <v>106.7333333333333</v>
+        <v>106.6333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,25 +529,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
         <v>110</v>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
+        <v>1942</v>
       </c>
       <c r="G6" t="n">
-        <v>106.8</v>
+        <v>106.7333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -544,19 +564,22 @@
         <v>110</v>
       </c>
       <c r="D7" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" t="n">
         <v>110</v>
       </c>
       <c r="F7" t="n">
-        <v>134981.8574</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>106.8666666666667</v>
+        <v>106.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +587,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="n">
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" t="n">
-        <v>1889.6774</v>
+        <v>134981.8574</v>
       </c>
       <c r="G8" t="n">
-        <v>106.95</v>
+        <v>106.8666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +616,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>560.0542</v>
+        <v>1889.6774</v>
       </c>
       <c r="G9" t="n">
-        <v>107.0166666666667</v>
+        <v>106.95</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -628,12 +657,15 @@
         <v>110</v>
       </c>
       <c r="F10" t="n">
-        <v>2088.2228</v>
+        <v>560.0542</v>
       </c>
       <c r="G10" t="n">
-        <v>107.1</v>
+        <v>107.0166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>110</v>
       </c>
       <c r="F11" t="n">
-        <v>2017.0477</v>
+        <v>2088.2228</v>
       </c>
       <c r="G11" t="n">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>110</v>
       </c>
       <c r="C12" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
       </c>
       <c r="E12" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12" t="n">
-        <v>16535.7813</v>
+        <v>2017.0477</v>
       </c>
       <c r="G12" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>110</v>
+      </c>
+      <c r="C13" t="n">
         <v>109</v>
       </c>
-      <c r="C13" t="n">
-        <v>108</v>
-      </c>
       <c r="D13" t="n">
+        <v>110</v>
+      </c>
+      <c r="E13" t="n">
         <v>109</v>
       </c>
-      <c r="E13" t="n">
-        <v>108</v>
-      </c>
       <c r="F13" t="n">
-        <v>431.9687</v>
+        <v>16535.7813</v>
       </c>
       <c r="G13" t="n">
-        <v>107.35</v>
+        <v>107.3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>109</v>
       </c>
       <c r="C14" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" t="n">
         <v>109</v>
       </c>
       <c r="E14" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>431.9687</v>
       </c>
       <c r="G14" t="n">
-        <v>107.45</v>
+        <v>107.35</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>109</v>
       </c>
       <c r="C15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" t="n">
         <v>109</v>
       </c>
       <c r="E15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" t="n">
-        <v>2730.7708</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>107.5333333333333</v>
+        <v>107.45</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
         <v>108</v>
       </c>
       <c r="D16" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
         <v>108</v>
       </c>
       <c r="F16" t="n">
-        <v>4127.3257</v>
+        <v>2730.7708</v>
       </c>
       <c r="G16" t="n">
-        <v>107.6</v>
+        <v>107.5333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>108</v>
       </c>
       <c r="F17" t="n">
-        <v>4188.84</v>
+        <v>4127.3257</v>
       </c>
       <c r="G17" t="n">
-        <v>107.6666666666667</v>
+        <v>107.6</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>108</v>
       </c>
       <c r="F18" t="n">
-        <v>15057.1869</v>
+        <v>4188.84</v>
       </c>
       <c r="G18" t="n">
-        <v>107.7166666666667</v>
+        <v>107.6666666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>108</v>
       </c>
       <c r="F19" t="n">
-        <v>1880.391</v>
+        <v>15057.1869</v>
       </c>
       <c r="G19" t="n">
-        <v>107.7666666666667</v>
+        <v>107.7166666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>15621.5711</v>
+        <v>1880.391</v>
       </c>
       <c r="G20" t="n">
-        <v>107.85</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>109</v>
+      </c>
+      <c r="C21" t="n">
         <v>110</v>
-      </c>
-      <c r="C21" t="n">
-        <v>109</v>
       </c>
       <c r="D21" t="n">
         <v>110</v>
@@ -914,12 +976,15 @@
         <v>109</v>
       </c>
       <c r="F21" t="n">
-        <v>400</v>
+        <v>15621.5711</v>
       </c>
       <c r="G21" t="n">
-        <v>107.9166666666667</v>
+        <v>107.85</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,7 +996,7 @@
         <v>110</v>
       </c>
       <c r="C22" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" t="n">
         <v>110</v>
@@ -940,12 +1005,15 @@
         <v>109</v>
       </c>
       <c r="F22" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="G22" t="n">
-        <v>108.0166666666667</v>
+        <v>107.9166666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,7 +1025,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" t="n">
         <v>110</v>
@@ -966,12 +1034,15 @@
         <v>109</v>
       </c>
       <c r="F23" t="n">
-        <v>943.8799</v>
+        <v>2800</v>
       </c>
       <c r="G23" t="n">
-        <v>108.1</v>
+        <v>108.0166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" t="n">
         <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" t="n">
         <v>109</v>
       </c>
       <c r="F24" t="n">
-        <v>7950.1178</v>
+        <v>943.8799</v>
       </c>
       <c r="G24" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>7950.1178</v>
       </c>
       <c r="G25" t="n">
-        <v>108.3166666666667</v>
+        <v>108.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>110</v>
       </c>
       <c r="F26" t="n">
-        <v>4010</v>
+        <v>800</v>
       </c>
       <c r="G26" t="n">
-        <v>108.4166666666667</v>
+        <v>108.3166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" t="n">
-        <v>1056.6142</v>
+        <v>4010</v>
       </c>
       <c r="G27" t="n">
-        <v>108.5333333333333</v>
+        <v>108.4166666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" t="n">
         <v>111</v>
@@ -1093,15 +1176,18 @@
         <v>111</v>
       </c>
       <c r="E28" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" t="n">
-        <v>4500.39639639</v>
+        <v>1056.6142</v>
       </c>
       <c r="G28" t="n">
-        <v>108.6333333333333</v>
+        <v>108.5333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>111</v>
       </c>
       <c r="C29" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D29" t="n">
         <v>111</v>
       </c>
       <c r="E29" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" t="n">
-        <v>218.75</v>
+        <v>4500.39639639</v>
       </c>
       <c r="G29" t="n">
-        <v>108.7333333333333</v>
+        <v>108.6333333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>111</v>
+      </c>
+      <c r="C30" t="n">
         <v>109</v>
       </c>
-      <c r="C30" t="n">
-        <v>107</v>
-      </c>
       <c r="D30" t="n">
+        <v>111</v>
+      </c>
+      <c r="E30" t="n">
         <v>109</v>
       </c>
-      <c r="E30" t="n">
-        <v>107</v>
-      </c>
       <c r="F30" t="n">
-        <v>11101.7967</v>
+        <v>218.75</v>
       </c>
       <c r="G30" t="n">
-        <v>108.7666666666667</v>
+        <v>108.7333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" t="n">
-        <v>5269.0193</v>
+        <v>11101.7967</v>
       </c>
       <c r="G31" t="n">
-        <v>108.85</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" t="n">
         <v>110</v>
       </c>
       <c r="D32" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F32" t="n">
-        <v>2196.4508</v>
+        <v>5269.0193</v>
       </c>
       <c r="G32" t="n">
-        <v>108.9166666666667</v>
+        <v>108.85</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F33" t="n">
-        <v>2224.6762</v>
+        <v>2196.4508</v>
       </c>
       <c r="G33" t="n">
-        <v>108.9666666666667</v>
+        <v>108.9166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,10 +1341,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" t="n">
         <v>109</v>
@@ -1252,12 +1353,15 @@
         <v>107</v>
       </c>
       <c r="F34" t="n">
-        <v>2033.6867</v>
+        <v>2224.6762</v>
       </c>
       <c r="G34" t="n">
-        <v>108.9833333333333</v>
+        <v>108.9666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" t="n">
         <v>107</v>
       </c>
       <c r="D35" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35" t="n">
         <v>107</v>
       </c>
       <c r="F35" t="n">
-        <v>4049.4458</v>
+        <v>2033.6867</v>
       </c>
       <c r="G35" t="n">
         <v>108.9833333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>107</v>
       </c>
       <c r="F36" t="n">
-        <v>23.2032</v>
+        <v>4049.4458</v>
       </c>
       <c r="G36" t="n">
-        <v>108.95</v>
+        <v>108.9833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>107</v>
       </c>
       <c r="F37" t="n">
-        <v>3964.13</v>
+        <v>23.2032</v>
       </c>
       <c r="G37" t="n">
-        <v>108.9333333333333</v>
+        <v>108.95</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>107</v>
       </c>
       <c r="F38" t="n">
-        <v>2467.77</v>
+        <v>3964.13</v>
       </c>
       <c r="G38" t="n">
-        <v>108.9166666666667</v>
+        <v>108.9333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>107</v>
       </c>
       <c r="F39" t="n">
-        <v>2689.7126</v>
+        <v>2467.77</v>
       </c>
       <c r="G39" t="n">
-        <v>108.8833333333333</v>
+        <v>108.9166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>107</v>
       </c>
       <c r="F40" t="n">
-        <v>3015.6685</v>
+        <v>2689.7126</v>
       </c>
       <c r="G40" t="n">
-        <v>108.85</v>
+        <v>108.8833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>107</v>
       </c>
       <c r="F41" t="n">
-        <v>3200</v>
+        <v>3015.6685</v>
       </c>
       <c r="G41" t="n">
-        <v>108.8166666666667</v>
+        <v>108.85</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>107</v>
       </c>
       <c r="F42" t="n">
-        <v>173.5037</v>
+        <v>3200</v>
       </c>
       <c r="G42" t="n">
         <v>108.8166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>107</v>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>173.5037</v>
       </c>
       <c r="G43" t="n">
-        <v>108.7833333333333</v>
+        <v>108.8166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" t="n">
-        <v>7507.2882</v>
+        <v>500</v>
       </c>
       <c r="G44" t="n">
-        <v>108.7666666666667</v>
+        <v>108.7833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" t="n">
-        <v>2921.2871</v>
+        <v>7507.2882</v>
       </c>
       <c r="G45" t="n">
-        <v>108.75</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1558,18 +1695,21 @@
         <v>108</v>
       </c>
       <c r="D46" t="n">
+        <v>109</v>
+      </c>
+      <c r="E46" t="n">
         <v>108</v>
       </c>
-      <c r="E46" t="n">
-        <v>107</v>
-      </c>
       <c r="F46" t="n">
-        <v>5465.0514</v>
+        <v>2921.2871</v>
       </c>
       <c r="G46" t="n">
-        <v>108.7333333333333</v>
+        <v>108.75</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1587,15 +1727,18 @@
         <v>108</v>
       </c>
       <c r="E47" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" t="n">
-        <v>87.5313</v>
+        <v>5465.0514</v>
       </c>
       <c r="G47" t="n">
         <v>108.7333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" t="n">
-        <v>155</v>
+        <v>87.5313</v>
       </c>
       <c r="G48" t="n">
-        <v>108.75</v>
+        <v>108.7333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>107</v>
       </c>
       <c r="C49" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D49" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E49" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" t="n">
-        <v>10303.55</v>
+        <v>155</v>
       </c>
       <c r="G49" t="n">
-        <v>108.7166666666667</v>
+        <v>108.75</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>106</v>
       </c>
       <c r="F50" t="n">
-        <v>5870.3369</v>
+        <v>10303.55</v>
       </c>
       <c r="G50" t="n">
-        <v>108.6666666666667</v>
+        <v>108.7166666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" t="n">
         <v>106</v>
       </c>
       <c r="D51" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" t="n">
         <v>106</v>
       </c>
       <c r="F51" t="n">
-        <v>400</v>
+        <v>5870.3369</v>
       </c>
       <c r="G51" t="n">
-        <v>108.6166666666667</v>
+        <v>108.6666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" t="n">
         <v>106</v>
       </c>
       <c r="D52" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" t="n">
         <v>106</v>
       </c>
       <c r="F52" t="n">
-        <v>2551.796</v>
+        <v>400</v>
       </c>
       <c r="G52" t="n">
-        <v>108.5666666666667</v>
+        <v>108.6166666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="n">
         <v>106</v>
       </c>
       <c r="D53" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="n">
         <v>106</v>
       </c>
       <c r="F53" t="n">
-        <v>8780.8107</v>
+        <v>2551.796</v>
       </c>
       <c r="G53" t="n">
-        <v>108.5</v>
+        <v>108.5666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" t="n">
         <v>106</v>
       </c>
       <c r="D54" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F54" t="n">
-        <v>13353.1023</v>
+        <v>8780.8107</v>
       </c>
       <c r="G54" t="n">
-        <v>108.4666666666667</v>
+        <v>108.5</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>105</v>
+      </c>
+      <c r="C55" t="n">
         <v>106</v>
       </c>
-      <c r="C55" t="n">
-        <v>107</v>
-      </c>
       <c r="D55" t="n">
         <v>107</v>
       </c>
       <c r="E55" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F55" t="n">
-        <v>5770.7949</v>
+        <v>13353.1023</v>
       </c>
       <c r="G55" t="n">
-        <v>108.4166666666667</v>
+        <v>108.4666666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,10 +1979,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D56" t="n">
         <v>107</v>
@@ -1824,12 +1991,15 @@
         <v>106</v>
       </c>
       <c r="F56" t="n">
-        <v>5777.8267</v>
+        <v>5770.7949</v>
       </c>
       <c r="G56" t="n">
-        <v>108.3666666666667</v>
+        <v>108.4166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C57" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D57" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F57" t="n">
-        <v>7688</v>
+        <v>5777.8267</v>
       </c>
       <c r="G57" t="n">
-        <v>108.35</v>
+        <v>108.3666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D58" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E58" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>7688</v>
       </c>
       <c r="G58" t="n">
-        <v>108.3166666666667</v>
+        <v>108.35</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F59" t="n">
-        <v>12169.3468</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>108.2666666666667</v>
+        <v>108.3166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60" t="n">
-        <v>402</v>
+        <v>12169.3468</v>
       </c>
       <c r="G60" t="n">
-        <v>108.2166666666667</v>
+        <v>108.2666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>106</v>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="G61" t="n">
-        <v>108.1666666666667</v>
+        <v>108.2166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F62" t="n">
-        <v>2821.2744</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>108.1166666666667</v>
+        <v>108.1666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F63" t="n">
-        <v>20396.1387</v>
+        <v>2821.2744</v>
       </c>
       <c r="G63" t="n">
-        <v>108.0666666666667</v>
+        <v>108.1166666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F64" t="n">
-        <v>808</v>
+        <v>20396.1387</v>
       </c>
       <c r="G64" t="n">
-        <v>108</v>
+        <v>108.0666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>105</v>
       </c>
       <c r="C65" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D65" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" t="n">
         <v>105</v>
       </c>
       <c r="F65" t="n">
-        <v>2378</v>
+        <v>808</v>
       </c>
       <c r="G65" t="n">
-        <v>107.9166666666667</v>
+        <v>108</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F66" t="n">
-        <v>30.0327</v>
+        <v>2378</v>
       </c>
       <c r="G66" t="n">
-        <v>107.8166666666667</v>
+        <v>107.9166666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>104</v>
       </c>
       <c r="C67" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D67" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E67" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F67" t="n">
-        <v>35377.16</v>
+        <v>30.0327</v>
       </c>
       <c r="G67" t="n">
-        <v>107.7666666666667</v>
+        <v>107.8166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C68" t="n">
         <v>107</v>
@@ -2133,15 +2336,18 @@
         <v>107</v>
       </c>
       <c r="E68" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F68" t="n">
-        <v>1823.1619</v>
+        <v>35377.16</v>
       </c>
       <c r="G68" t="n">
-        <v>107.7</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>107</v>
       </c>
       <c r="F69" t="n">
-        <v>41.27</v>
+        <v>1823.1619</v>
       </c>
       <c r="G69" t="n">
-        <v>107.65</v>
+        <v>107.7</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>107</v>
       </c>
       <c r="C70" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D70" t="n">
         <v>107</v>
       </c>
       <c r="E70" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F70" t="n">
-        <v>2963.7143</v>
+        <v>41.27</v>
       </c>
       <c r="G70" t="n">
-        <v>107.5666666666667</v>
+        <v>107.65</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>107</v>
       </c>
       <c r="C71" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D71" t="n">
         <v>107</v>
       </c>
       <c r="E71" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F71" t="n">
-        <v>890.1732</v>
+        <v>2963.7143</v>
       </c>
       <c r="G71" t="n">
-        <v>107.4666666666667</v>
+        <v>107.5666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C72" t="n">
         <v>104</v>
       </c>
       <c r="D72" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E72" t="n">
         <v>104</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>890.1732</v>
       </c>
       <c r="G72" t="n">
-        <v>107.3833333333333</v>
+        <v>107.4666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>104</v>
       </c>
       <c r="C73" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F73" t="n">
-        <v>25505.0642</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>107.3333333333333</v>
+        <v>107.3833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D74" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" t="n">
         <v>102</v>
       </c>
       <c r="F74" t="n">
-        <v>5048.8712</v>
+        <v>25505.0642</v>
       </c>
       <c r="G74" t="n">
-        <v>107.2166666666667</v>
+        <v>107.3333333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>103</v>
       </c>
       <c r="C75" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D75" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F75" t="n">
-        <v>42717.8175</v>
+        <v>5048.8712</v>
       </c>
       <c r="G75" t="n">
-        <v>107.1333333333333</v>
+        <v>107.2166666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>103</v>
       </c>
       <c r="F76" t="n">
-        <v>5231.1097</v>
+        <v>42717.8175</v>
       </c>
       <c r="G76" t="n">
-        <v>107.05</v>
+        <v>107.1333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F77" t="n">
-        <v>4338.1366</v>
+        <v>5231.1097</v>
       </c>
       <c r="G77" t="n">
-        <v>106.9833333333333</v>
+        <v>107.05</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>4338.1366</v>
       </c>
       <c r="G78" t="n">
-        <v>106.9</v>
+        <v>106.9833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>102</v>
       </c>
       <c r="F80" t="n">
-        <v>15726.9184</v>
+        <v>5000</v>
       </c>
       <c r="G80" t="n">
-        <v>106.6666666666667</v>
+        <v>106.8</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" t="n">
         <v>102</v>
@@ -2471,15 +2713,18 @@
         <v>102</v>
       </c>
       <c r="E81" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F81" t="n">
-        <v>23146.1066</v>
+        <v>15726.9184</v>
       </c>
       <c r="G81" t="n">
-        <v>106.55</v>
+        <v>106.6666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>101</v>
       </c>
       <c r="C82" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D82" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F82" t="n">
-        <v>35809.7598</v>
+        <v>23146.1066</v>
       </c>
       <c r="G82" t="n">
-        <v>106.4</v>
+        <v>106.55</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>101</v>
       </c>
       <c r="F83" t="n">
-        <v>2015.0366</v>
+        <v>35809.7598</v>
       </c>
       <c r="G83" t="n">
-        <v>106.2666666666667</v>
+        <v>106.4</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F84" t="n">
-        <v>698.7186</v>
+        <v>2015.0366</v>
       </c>
       <c r="G84" t="n">
-        <v>106.1166666666667</v>
+        <v>106.2666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E85" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F85" t="n">
-        <v>1852.1236</v>
+        <v>698.7186</v>
       </c>
       <c r="G85" t="n">
-        <v>105.9833333333333</v>
+        <v>106.1166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="n">
         <v>102</v>
@@ -2601,15 +2858,18 @@
         <v>102</v>
       </c>
       <c r="E86" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F86" t="n">
-        <v>152.547</v>
+        <v>1852.1236</v>
       </c>
       <c r="G86" t="n">
-        <v>105.85</v>
+        <v>105.9833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F87" t="n">
-        <v>3501.7585</v>
+        <v>152.547</v>
       </c>
       <c r="G87" t="n">
-        <v>105.6833333333333</v>
+        <v>105.85</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>101</v>
       </c>
       <c r="F88" t="n">
-        <v>6621.0924</v>
+        <v>3501.7585</v>
       </c>
       <c r="G88" t="n">
-        <v>105.5166666666667</v>
+        <v>105.6833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>101</v>
       </c>
       <c r="C89" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D89" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F89" t="n">
-        <v>22970.3285</v>
+        <v>6621.0924</v>
       </c>
       <c r="G89" t="n">
-        <v>105.3666666666667</v>
+        <v>105.5166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" t="n">
         <v>100</v>
       </c>
       <c r="D90" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" t="n">
         <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>47000</v>
+        <v>22970.3285</v>
       </c>
       <c r="G90" t="n">
-        <v>105.25</v>
+        <v>105.3666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>100</v>
       </c>
       <c r="F91" t="n">
-        <v>519.0267</v>
+        <v>47000</v>
       </c>
       <c r="G91" t="n">
-        <v>105.0833333333333</v>
+        <v>105.25</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C92" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F92" t="n">
-        <v>26272.7861</v>
+        <v>519.0267</v>
       </c>
       <c r="G92" t="n">
-        <v>104.9083333333333</v>
+        <v>105.0833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="D93" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E93" t="n">
         <v>98</v>
       </c>
       <c r="F93" t="n">
-        <v>9073.500400000001</v>
+        <v>26272.7861</v>
       </c>
       <c r="G93" t="n">
-        <v>104.725</v>
+        <v>104.9083333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="D94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>9073.500400000001</v>
       </c>
       <c r="G94" t="n">
-        <v>104.5983333333333</v>
+        <v>104.725</v>
       </c>
       <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>99.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1487.925</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>104.4716666666666</v>
+        <v>104.5983333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>1487.925</v>
       </c>
       <c r="G96" t="n">
-        <v>104.3533333333333</v>
+        <v>104.4716666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>1275.35</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>104.235</v>
+        <v>104.3533333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>99.90000000000001</v>
@@ -2913,15 +3206,18 @@
         <v>99.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>32.9469</v>
+        <v>1275.35</v>
       </c>
       <c r="G98" t="n">
-        <v>104.1166666666666</v>
+        <v>104.235</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C99" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C99" t="n">
-        <v>100</v>
-      </c>
       <c r="D99" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>98.5</v>
+        <v>99.7</v>
       </c>
       <c r="F99" t="n">
-        <v>22356.4041</v>
+        <v>32.9469</v>
       </c>
       <c r="G99" t="n">
-        <v>104</v>
+        <v>104.1166666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="F100" t="n">
-        <v>400</v>
+        <v>22356.4041</v>
       </c>
       <c r="G100" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>100</v>
       </c>
       <c r="F101" t="n">
-        <v>24629.8057</v>
+        <v>400</v>
       </c>
       <c r="G101" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" t="n">
         <v>101</v>
@@ -3017,15 +3322,18 @@
         <v>101</v>
       </c>
       <c r="E102" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F102" t="n">
-        <v>7219.364</v>
+        <v>24629.8057</v>
       </c>
       <c r="G102" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>101</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>7219.364</v>
       </c>
       <c r="G103" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>101</v>
       </c>
       <c r="F104" t="n">
-        <v>831</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>103.5166666666666</v>
+        <v>103.6</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>101</v>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>831</v>
       </c>
       <c r="G105" t="n">
-        <v>103.4</v>
+        <v>103.5166666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>101</v>
       </c>
       <c r="C106" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D106" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E106" t="n">
         <v>101</v>
       </c>
       <c r="F106" t="n">
-        <v>4527.4261</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="n">
-        <v>103.3166666666666</v>
+        <v>103.4</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D107" t="n">
         <v>103</v>
       </c>
       <c r="E107" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F107" t="n">
-        <v>7322.6368</v>
+        <v>4527.4261</v>
       </c>
       <c r="G107" t="n">
-        <v>103.2166666666666</v>
+        <v>103.3166666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>102</v>
       </c>
       <c r="F108" t="n">
-        <v>5384.7916</v>
+        <v>7322.6368</v>
       </c>
       <c r="G108" t="n">
-        <v>103.1</v>
+        <v>103.2166666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C109" t="n">
         <v>102</v>
       </c>
       <c r="D109" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E109" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F109" t="n">
-        <v>23162.4297</v>
+        <v>5384.7916</v>
       </c>
       <c r="G109" t="n">
-        <v>103.0333333333333</v>
+        <v>103.1</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" t="n">
         <v>102</v>
@@ -3225,15 +3554,18 @@
         <v>102</v>
       </c>
       <c r="E110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F110" t="n">
-        <v>1657.3852</v>
+        <v>23162.4297</v>
       </c>
       <c r="G110" t="n">
-        <v>102.9666666666666</v>
+        <v>103.0333333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>102</v>
       </c>
       <c r="F111" t="n">
-        <v>2340.9698</v>
+        <v>1657.3852</v>
       </c>
       <c r="G111" t="n">
-        <v>102.9</v>
+        <v>102.9666666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3277,15 +3612,18 @@
         <v>102</v>
       </c>
       <c r="E112" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F112" t="n">
-        <v>22608.7196</v>
+        <v>2340.9698</v>
       </c>
       <c r="G112" t="n">
-        <v>102.8333333333333</v>
+        <v>102.9</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D113" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F113" t="n">
-        <v>4.9</v>
+        <v>22608.7196</v>
       </c>
       <c r="G113" t="n">
-        <v>102.7833333333333</v>
+        <v>102.8333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F114" t="n">
         <v>4.9</v>
       </c>
       <c r="G114" t="n">
-        <v>102.75</v>
+        <v>102.7833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>104</v>
       </c>
       <c r="F115" t="n">
-        <v>370.6767</v>
+        <v>4.9</v>
       </c>
       <c r="G115" t="n">
-        <v>102.7</v>
+        <v>102.75</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F116" t="n">
-        <v>969.7929</v>
+        <v>370.6767</v>
       </c>
       <c r="G116" t="n">
-        <v>102.65</v>
+        <v>102.7</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F117" t="n">
-        <v>1298.2969</v>
+        <v>969.7929</v>
       </c>
       <c r="G117" t="n">
-        <v>102.55</v>
+        <v>102.65</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>102</v>
       </c>
       <c r="F118" t="n">
-        <v>1061.5143</v>
+        <v>1298.2969</v>
       </c>
       <c r="G118" t="n">
-        <v>102.4666666666666</v>
+        <v>102.55</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F119" t="n">
-        <v>183.6929</v>
+        <v>1061.5143</v>
       </c>
       <c r="G119" t="n">
-        <v>102.4333333333333</v>
+        <v>102.4666666666666</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F120" t="n">
-        <v>400</v>
+        <v>183.6929</v>
       </c>
       <c r="G120" t="n">
-        <v>102.3666666666666</v>
+        <v>102.4333333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>102</v>
       </c>
       <c r="C121" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D121" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F121" t="n">
-        <v>10351.2766</v>
+        <v>400</v>
       </c>
       <c r="G121" t="n">
-        <v>102.3166666666666</v>
+        <v>102.3666666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C122" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D122" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E122" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="F122" t="n">
-        <v>16521.9988</v>
+        <v>10351.2766</v>
       </c>
       <c r="G122" t="n">
-        <v>102.2666666666666</v>
+        <v>102.3166666666666</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>98.7</v>
+        <v>101</v>
       </c>
       <c r="C123" t="n">
-        <v>98.7</v>
+        <v>102</v>
       </c>
       <c r="D123" t="n">
-        <v>98.7</v>
+        <v>102</v>
       </c>
       <c r="E123" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>16521.9988</v>
       </c>
       <c r="G123" t="n">
-        <v>102.145</v>
+        <v>102.2666666666666</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="C124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="D124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="E124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="F124" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>102.045</v>
+        <v>102.145</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C125" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D125" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E125" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F125" t="n">
-        <v>5500.8408</v>
+        <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>101.9283333333333</v>
+        <v>102.045</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="D126" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="F126" t="n">
-        <v>11734.6148</v>
+        <v>5500.8408</v>
       </c>
       <c r="G126" t="n">
-        <v>101.8383333333333</v>
+        <v>101.9283333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>101</v>
       </c>
       <c r="C127" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D127" t="n">
         <v>101</v>
       </c>
       <c r="E127" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>473.5014</v>
+        <v>11734.6148</v>
       </c>
       <c r="G127" t="n">
-        <v>101.7383333333333</v>
+        <v>101.8383333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>101</v>
       </c>
       <c r="F128" t="n">
-        <v>6.4402</v>
+        <v>473.5014</v>
       </c>
       <c r="G128" t="n">
-        <v>101.6383333333333</v>
+        <v>101.7383333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="C129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="D129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="E129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="F129" t="n">
-        <v>400</v>
+        <v>6.4402</v>
       </c>
       <c r="G129" t="n">
-        <v>101.5166666666666</v>
+        <v>101.6383333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,7 +4125,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>98.8</v>
+        <v>99.7</v>
       </c>
       <c r="C130" t="n">
         <v>99.7</v>
@@ -3745,15 +4134,18 @@
         <v>99.7</v>
       </c>
       <c r="E130" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="F130" t="n">
-        <v>9600</v>
+        <v>400</v>
       </c>
       <c r="G130" t="n">
-        <v>101.4283333333333</v>
+        <v>101.5166666666666</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>99.8</v>
+        <v>98.8</v>
       </c>
       <c r="C131" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="D131" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E131" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="F131" t="n">
-        <v>2361.0277</v>
+        <v>9600</v>
       </c>
       <c r="G131" t="n">
-        <v>101.3583333333333</v>
+        <v>101.4283333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F132" t="n">
-        <v>2397.602</v>
+        <v>2361.0277</v>
       </c>
       <c r="G132" t="n">
-        <v>101.2916666666666</v>
+        <v>101.3583333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>100</v>
       </c>
       <c r="F133" t="n">
-        <v>1400</v>
+        <v>2397.602</v>
       </c>
       <c r="G133" t="n">
-        <v>101.2083333333333</v>
+        <v>101.2916666666666</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" t="n">
         <v>100</v>
       </c>
       <c r="D134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E134" t="n">
         <v>100</v>
       </c>
       <c r="F134" t="n">
-        <v>1540.0562</v>
+        <v>1400</v>
       </c>
       <c r="G134" t="n">
-        <v>101.175</v>
+        <v>101.2083333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C135" t="n">
         <v>100</v>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E135" t="n">
         <v>100</v>
       </c>
       <c r="F135" t="n">
-        <v>6.4402</v>
+        <v>1540.0562</v>
       </c>
       <c r="G135" t="n">
-        <v>101.125</v>
+        <v>101.175</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>6.4402</v>
       </c>
       <c r="G136" t="n">
-        <v>101.1083333333333</v>
+        <v>101.125</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F137" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G137" t="n">
-        <v>101.0583333333333</v>
+        <v>101.1083333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3959,9 +4372,12 @@
         <v>400</v>
       </c>
       <c r="G138" t="n">
-        <v>101.025</v>
+        <v>101.0583333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C139" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D139" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E139" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F139" t="n">
-        <v>9708.34668058</v>
+        <v>400</v>
       </c>
       <c r="G139" t="n">
-        <v>101.0416666666666</v>
+        <v>101.025</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,21 +4418,24 @@
         <v>102</v>
       </c>
       <c r="C140" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D140" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E140" t="n">
         <v>102</v>
       </c>
       <c r="F140" t="n">
-        <v>1200</v>
+        <v>9708.34668058</v>
       </c>
       <c r="G140" t="n">
         <v>101.0416666666666</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F141" t="n">
-        <v>3646.2565</v>
+        <v>1200</v>
       </c>
       <c r="G141" t="n">
-        <v>101.0583333333333</v>
+        <v>101.0416666666666</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>103</v>
       </c>
       <c r="C142" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D142" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E142" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F142" t="n">
-        <v>1315.44331942</v>
+        <v>3646.2565</v>
       </c>
       <c r="G142" t="n">
-        <v>101.1083333333333</v>
+        <v>101.0583333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,7 +4502,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C143" t="n">
         <v>104</v>
@@ -4083,15 +4511,18 @@
         <v>104</v>
       </c>
       <c r="E143" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F143" t="n">
-        <v>48.07692307</v>
+        <v>1315.44331942</v>
       </c>
       <c r="G143" t="n">
-        <v>101.1583333333333</v>
+        <v>101.1083333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F144" t="n">
-        <v>1606.1561</v>
+        <v>48.07692307</v>
       </c>
       <c r="G144" t="n">
-        <v>101.2083333333333</v>
+        <v>101.1583333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,13 +4572,16 @@
         <v>103</v>
       </c>
       <c r="F145" t="n">
-        <v>800</v>
+        <v>1606.1561</v>
       </c>
       <c r="G145" t="n">
-        <v>101.225</v>
+        <v>101.2083333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F146" t="n">
-        <v>3914.8439</v>
+        <v>800</v>
       </c>
       <c r="G146" t="n">
         <v>101.225</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>102</v>
       </c>
       <c r="F147" t="n">
-        <v>1200</v>
+        <v>3914.8439</v>
       </c>
       <c r="G147" t="n">
-        <v>101.2416666666666</v>
+        <v>101.225</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>102</v>
       </c>
       <c r="F148" t="n">
-        <v>5006.0369</v>
+        <v>1200</v>
       </c>
       <c r="G148" t="n">
-        <v>101.2583333333333</v>
+        <v>101.2416666666666</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F149" t="n">
-        <v>800</v>
+        <v>5006.0369</v>
       </c>
       <c r="G149" t="n">
-        <v>101.325</v>
+        <v>101.2583333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,21 +4708,24 @@
         <v>104</v>
       </c>
       <c r="C150" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D150" t="n">
         <v>104</v>
       </c>
       <c r="E150" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F150" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G150" t="n">
-        <v>101.375</v>
+        <v>101.325</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C151" t="n">
         <v>103</v>
       </c>
       <c r="D151" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E151" t="n">
         <v>103</v>
       </c>
       <c r="F151" t="n">
-        <v>1210</v>
+        <v>3200</v>
       </c>
       <c r="G151" t="n">
-        <v>101.425</v>
+        <v>101.375</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F152" t="n">
-        <v>400</v>
+        <v>1210</v>
       </c>
       <c r="G152" t="n">
-        <v>101.4666666666666</v>
+        <v>101.425</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>102</v>
       </c>
       <c r="F153" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G153" t="n">
-        <v>101.5333333333333</v>
+        <v>101.4666666666666</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,12 +4833,15 @@
         <v>102</v>
       </c>
       <c r="F154" t="n">
-        <v>279.6005</v>
+        <v>1500</v>
       </c>
       <c r="G154" t="n">
-        <v>101.5766666666666</v>
+        <v>101.5333333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>102</v>
       </c>
       <c r="F155" t="n">
-        <v>137.8765</v>
+        <v>279.6005</v>
       </c>
       <c r="G155" t="n">
-        <v>101.62</v>
+        <v>101.5766666666666</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>102</v>
       </c>
       <c r="F156" t="n">
-        <v>400</v>
+        <v>137.8765</v>
       </c>
       <c r="G156" t="n">
-        <v>101.655</v>
+        <v>101.62</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>102</v>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G157" t="n">
-        <v>101.69</v>
+        <v>101.655</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>102</v>
       </c>
       <c r="F158" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="n">
-        <v>101.725</v>
+        <v>101.69</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>102</v>
       </c>
       <c r="F159" t="n">
-        <v>183.6929</v>
+        <v>400</v>
       </c>
       <c r="G159" t="n">
-        <v>101.7583333333333</v>
+        <v>101.725</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F160" t="n">
-        <v>5</v>
+        <v>183.6929</v>
       </c>
       <c r="G160" t="n">
-        <v>101.7916666666667</v>
+        <v>101.7583333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F161" t="n">
-        <v>3315.66838058</v>
+        <v>5</v>
       </c>
       <c r="G161" t="n">
-        <v>101.8083333333333</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F162" t="n">
-        <v>6254.1424</v>
+        <v>3315.66838058</v>
       </c>
       <c r="G162" t="n">
         <v>101.8083333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>101</v>
       </c>
       <c r="F163" t="n">
-        <v>3724.099</v>
+        <v>6254.1424</v>
       </c>
       <c r="G163" t="n">
         <v>101.8083333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>101</v>
       </c>
       <c r="F164" t="n">
-        <v>400</v>
+        <v>3724.099</v>
       </c>
       <c r="G164" t="n">
         <v>101.8083333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>101</v>
       </c>
       <c r="F165" t="n">
-        <v>6829.7191</v>
+        <v>400</v>
       </c>
       <c r="G165" t="n">
         <v>101.8083333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>101</v>
       </c>
       <c r="F166" t="n">
-        <v>723.6665</v>
+        <v>6829.7191</v>
       </c>
       <c r="G166" t="n">
-        <v>101.775</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>101</v>
       </c>
       <c r="F167" t="n">
-        <v>2911.6076</v>
+        <v>723.6665</v>
       </c>
       <c r="G167" t="n">
-        <v>101.7583333333333</v>
+        <v>101.775</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F168" t="n">
-        <v>5</v>
+        <v>2911.6076</v>
       </c>
       <c r="G168" t="n">
-        <v>101.775</v>
+        <v>101.7583333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,7 +5256,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C169" t="n">
         <v>103</v>
@@ -4759,15 +5265,18 @@
         <v>103</v>
       </c>
       <c r="E169" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F169" t="n">
-        <v>940.0403</v>
+        <v>5</v>
       </c>
       <c r="G169" t="n">
-        <v>101.7916666666667</v>
+        <v>101.775</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>101</v>
       </c>
       <c r="C170" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D170" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E170" t="n">
         <v>101</v>
       </c>
       <c r="F170" t="n">
-        <v>1058.0907</v>
+        <v>940.0403</v>
       </c>
       <c r="G170" t="n">
-        <v>101.775</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,21 +5317,24 @@
         <v>101</v>
       </c>
       <c r="C171" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D171" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E171" t="n">
         <v>101</v>
       </c>
       <c r="F171" t="n">
-        <v>504.8239</v>
+        <v>1058.0907</v>
       </c>
       <c r="G171" t="n">
-        <v>101.7916666666667</v>
+        <v>101.775</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +5343,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C172" t="n">
         <v>103</v>
@@ -4837,15 +5352,18 @@
         <v>103</v>
       </c>
       <c r="E172" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F172" t="n">
-        <v>7699.9561</v>
+        <v>504.8239</v>
       </c>
       <c r="G172" t="n">
-        <v>101.8083333333333</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,12 +5384,15 @@
         <v>103</v>
       </c>
       <c r="F173" t="n">
-        <v>2933.6357</v>
+        <v>7699.9561</v>
       </c>
       <c r="G173" t="n">
         <v>101.8083333333333</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>103</v>
       </c>
       <c r="F174" t="n">
-        <v>1980.204</v>
+        <v>2933.6357</v>
       </c>
       <c r="G174" t="n">
-        <v>101.7916666666667</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>103</v>
       </c>
       <c r="F175" t="n">
-        <v>411.2731</v>
+        <v>1980.204</v>
       </c>
       <c r="G175" t="n">
-        <v>101.775</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>103</v>
       </c>
       <c r="F176" t="n">
-        <v>982.0376</v>
+        <v>411.2731</v>
       </c>
       <c r="G176" t="n">
         <v>101.775</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4961,21 +5491,24 @@
         <v>103</v>
       </c>
       <c r="C177" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D177" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E177" t="n">
         <v>103</v>
       </c>
       <c r="F177" t="n">
-        <v>1008.2424</v>
+        <v>982.0376</v>
       </c>
       <c r="G177" t="n">
-        <v>101.8083333333333</v>
+        <v>101.775</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>103</v>
       </c>
       <c r="C178" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D178" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E178" t="n">
         <v>103</v>
       </c>
       <c r="F178" t="n">
-        <v>410.0226</v>
+        <v>1008.2424</v>
       </c>
       <c r="G178" t="n">
-        <v>101.825</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F179" t="n">
-        <v>436</v>
+        <v>410.0226</v>
       </c>
       <c r="G179" t="n">
-        <v>101.8083333333333</v>
+        <v>101.825</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C180" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D180" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E180" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F180" t="n">
-        <v>30185.7092</v>
+        <v>436</v>
       </c>
       <c r="G180" t="n">
-        <v>101.7916666666667</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C181" t="n">
+        <v>101</v>
+      </c>
+      <c r="D181" t="n">
+        <v>101</v>
+      </c>
+      <c r="E181" t="n">
         <v>99.8</v>
       </c>
-      <c r="D181" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>99</v>
-      </c>
       <c r="F181" t="n">
-        <v>1631.2828</v>
+        <v>30185.7092</v>
       </c>
       <c r="G181" t="n">
-        <v>101.7383333333333</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C182" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="D182" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E182" t="n">
         <v>99</v>
       </c>
       <c r="F182" t="n">
-        <v>10000</v>
+        <v>1631.2828</v>
       </c>
       <c r="G182" t="n">
-        <v>101.6883333333333</v>
+        <v>101.7383333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>99</v>
       </c>
       <c r="F183" t="n">
-        <v>7200</v>
+        <v>10000</v>
       </c>
       <c r="G183" t="n">
-        <v>101.6933333333333</v>
+        <v>101.6883333333333</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>99</v>
       </c>
       <c r="F184" t="n">
-        <v>3865.6772</v>
+        <v>7200</v>
       </c>
       <c r="G184" t="n">
-        <v>101.66</v>
+        <v>101.6933333333333</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="C185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="D185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="E185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="F185" t="n">
-        <v>435.3839</v>
+        <v>3865.6772</v>
       </c>
       <c r="G185" t="n">
-        <v>101.6733333333333</v>
+        <v>101.66</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F186" t="n">
-        <v>5</v>
+        <v>435.3839</v>
       </c>
       <c r="G186" t="n">
-        <v>101.6966666666667</v>
+        <v>101.6733333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="D187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="E187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F187" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G187" t="n">
-        <v>101.6516666666667</v>
+        <v>101.6966666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="D188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="E188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F188" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G188" t="n">
-        <v>101.635</v>
+        <v>101.6516666666667</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="C189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="D189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="E189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="F189" t="n">
-        <v>290.2381</v>
+        <v>5</v>
       </c>
       <c r="G189" t="n">
-        <v>101.615</v>
+        <v>101.635</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="C190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="D190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="E190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="F190" t="n">
-        <v>28.6374</v>
+        <v>290.2381</v>
       </c>
       <c r="G190" t="n">
-        <v>101.6166666666667</v>
+        <v>101.615</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="D191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="F191" t="n">
-        <v>4000</v>
+        <v>28.6374</v>
       </c>
       <c r="G191" t="n">
-        <v>101.5966666666667</v>
+        <v>101.6166666666667</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F192" t="n">
-        <v>12858.5955</v>
+        <v>4000</v>
       </c>
       <c r="G192" t="n">
-        <v>101.5733333333334</v>
+        <v>101.5966666666667</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>98.59999999999999</v>
       </c>
       <c r="C193" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D193" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F193" t="n">
-        <v>24108.6572</v>
+        <v>12858.5955</v>
       </c>
       <c r="G193" t="n">
-        <v>101.5416666666667</v>
+        <v>101.5733333333334</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F194" t="n">
-        <v>1635.7727</v>
+        <v>24108.6572</v>
       </c>
       <c r="G194" t="n">
-        <v>101.535</v>
+        <v>101.5416666666667</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F195" t="n">
-        <v>13712.7475</v>
+        <v>1635.7727</v>
       </c>
       <c r="G195" t="n">
-        <v>101.5033333333334</v>
+        <v>101.535</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>3316</v>
+        <v>13712.7475</v>
       </c>
       <c r="G196" t="n">
-        <v>101.4366666666667</v>
+        <v>101.5033333333334</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="C197" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D197" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="E197" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F197" t="n">
-        <v>43012.4138</v>
+        <v>3316</v>
       </c>
       <c r="G197" t="n">
-        <v>101.3366666666667</v>
+        <v>101.4366666666667</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="C198" t="n">
-        <v>98.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D198" t="n">
-        <v>98.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E198" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F198" t="n">
-        <v>39.3755</v>
+        <v>43012.4138</v>
       </c>
       <c r="G198" t="n">
-        <v>101.2966666666667</v>
+        <v>101.3366666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5533,21 +6129,24 @@
         <v>96</v>
       </c>
       <c r="C199" t="n">
-        <v>96</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>96</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E199" t="n">
         <v>96</v>
       </c>
       <c r="F199" t="n">
-        <v>20</v>
+        <v>39.3755</v>
       </c>
       <c r="G199" t="n">
-        <v>101.18</v>
+        <v>101.2966666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>99.2</v>
+        <v>96</v>
       </c>
       <c r="C200" t="n">
-        <v>98.8</v>
+        <v>96</v>
       </c>
       <c r="D200" t="n">
-        <v>99.2</v>
+        <v>96</v>
       </c>
       <c r="E200" t="n">
-        <v>98.8</v>
+        <v>96</v>
       </c>
       <c r="F200" t="n">
-        <v>19.277</v>
+        <v>20</v>
       </c>
       <c r="G200" t="n">
-        <v>101.1266666666667</v>
+        <v>101.18</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>96.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C201" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="D201" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="E201" t="n">
-        <v>96.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="F201" t="n">
-        <v>40</v>
+        <v>19.277</v>
       </c>
       <c r="G201" t="n">
-        <v>101.06</v>
+        <v>101.1266666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5611,21 +6216,24 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>96.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D202" t="n">
-        <v>96.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E202" t="n">
         <v>96.09999999999999</v>
       </c>
       <c r="F202" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G202" t="n">
-        <v>100.9283333333334</v>
+        <v>101.06</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>96.09999999999999</v>
       </c>
       <c r="F203" t="n">
-        <v>3815.5975</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>100.7966666666667</v>
+        <v>100.9283333333334</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C204" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F204" t="n">
-        <v>7122.3126</v>
+        <v>3815.5975</v>
       </c>
       <c r="G204" t="n">
-        <v>100.6833333333334</v>
+        <v>100.7966666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C205" t="n">
         <v>96.2</v>
       </c>
       <c r="D205" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E205" t="n">
         <v>96.2</v>
       </c>
       <c r="F205" t="n">
-        <v>2171.3583</v>
+        <v>7122.3126</v>
       </c>
       <c r="G205" t="n">
-        <v>100.5700000000001</v>
+        <v>100.6833333333334</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="C206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="D206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="F206" t="n">
-        <v>5.9928</v>
+        <v>2171.3583</v>
       </c>
       <c r="G206" t="n">
-        <v>100.5133333333334</v>
+        <v>100.5700000000001</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5747,15 +6367,18 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>97.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F207" t="n">
-        <v>6400</v>
+        <v>5.9928</v>
       </c>
       <c r="G207" t="n">
-        <v>100.4566666666667</v>
+        <v>100.5133333333334</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5773,15 +6396,18 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>98.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F208" t="n">
-        <v>1200</v>
+        <v>6400</v>
       </c>
       <c r="G208" t="n">
-        <v>100.4000000000001</v>
+        <v>100.4566666666667</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,21 +6419,24 @@
         <v>98.59999999999999</v>
       </c>
       <c r="C209" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D209" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E209" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G209" t="n">
-        <v>100.3116666666667</v>
+        <v>100.4000000000001</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,7 +6445,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C210" t="n">
         <v>98.7</v>
@@ -5825,15 +6454,18 @@
         <v>98.7</v>
       </c>
       <c r="E210" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F210" t="n">
-        <v>6384.5294</v>
+        <v>1600</v>
       </c>
       <c r="G210" t="n">
-        <v>100.2400000000001</v>
+        <v>100.3116666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F211" t="n">
-        <v>6</v>
+        <v>6384.5294</v>
       </c>
       <c r="G211" t="n">
-        <v>100.1833333333334</v>
+        <v>100.2400000000001</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,12 +6515,15 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G212" t="n">
-        <v>100.1433333333334</v>
+        <v>100.1833333333334</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F213" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G213" t="n">
-        <v>100.1033333333334</v>
+        <v>100.1433333333334</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C214" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E214" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F214" t="n">
-        <v>23200</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
-        <v>100.0700000000001</v>
+        <v>100.1033333333334</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,7 +6590,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C215" t="n">
         <v>100</v>
@@ -5955,15 +6599,18 @@
         <v>100</v>
       </c>
       <c r="E215" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>23200</v>
       </c>
       <c r="G215" t="n">
-        <v>100.0366666666668</v>
+        <v>100.0700000000001</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>100</v>
       </c>
       <c r="F216" t="n">
-        <v>1007.1974</v>
+        <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>100.0033333333334</v>
+        <v>100.0366666666668</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>100</v>
       </c>
       <c r="F217" t="n">
-        <v>177.562</v>
+        <v>1007.1974</v>
       </c>
       <c r="G217" t="n">
-        <v>99.97000000000008</v>
+        <v>100.0033333333334</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,7 +6677,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C218" t="n">
         <v>100</v>
@@ -6033,15 +6686,18 @@
         <v>100</v>
       </c>
       <c r="E218" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F218" t="n">
-        <v>3488.562</v>
+        <v>177.562</v>
       </c>
       <c r="G218" t="n">
-        <v>99.93666666666675</v>
+        <v>99.97000000000008</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,7 +6706,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C219" t="n">
         <v>100</v>
@@ -6059,15 +6715,18 @@
         <v>100</v>
       </c>
       <c r="E219" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F219" t="n">
-        <v>112</v>
+        <v>3488.562</v>
       </c>
       <c r="G219" t="n">
-        <v>99.90333333333342</v>
+        <v>99.93666666666675</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D220" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E220" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>20112</v>
+        <v>112</v>
       </c>
       <c r="G220" t="n">
-        <v>99.81833333333341</v>
+        <v>99.90333333333342</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D221" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="E221" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F221" t="n">
-        <v>1241.2213</v>
+        <v>20112</v>
       </c>
       <c r="G221" t="n">
-        <v>99.75666666666675</v>
+        <v>99.81833333333341</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F222" t="n">
-        <v>7248.1214</v>
+        <v>1241.2213</v>
       </c>
       <c r="G222" t="n">
-        <v>99.73000000000008</v>
+        <v>99.75666666666675</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>99.40000000000001</v>
       </c>
       <c r="F223" t="n">
-        <v>6885.7153</v>
+        <v>7248.1214</v>
       </c>
       <c r="G223" t="n">
-        <v>99.7033333333334</v>
+        <v>99.73000000000008</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,7 +6851,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C224" t="n">
         <v>99.40000000000001</v>
@@ -6189,15 +6860,18 @@
         <v>99.40000000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F224" t="n">
-        <v>15731.7514</v>
+        <v>6885.7153</v>
       </c>
       <c r="G224" t="n">
-        <v>99.67666666666673</v>
+        <v>99.7033333333334</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="C225" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D225" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E225" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="F225" t="n">
-        <v>20959.3197</v>
+        <v>15731.7514</v>
       </c>
       <c r="G225" t="n">
-        <v>99.66000000000007</v>
+        <v>99.67666666666673</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F226" t="n">
-        <v>498.8956</v>
+        <v>20959.3197</v>
       </c>
       <c r="G226" t="n">
-        <v>99.63500000000006</v>
+        <v>99.66000000000007</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="C227" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="D227" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="E227" t="n">
-        <v>98.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F227" t="n">
-        <v>1166.2398</v>
+        <v>498.8956</v>
       </c>
       <c r="G227" t="n">
-        <v>99.5883333333334</v>
+        <v>99.63500000000006</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C228" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D228" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E228" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="F228" t="n">
-        <v>259.3337</v>
+        <v>1166.2398</v>
       </c>
       <c r="G228" t="n">
-        <v>99.50666666666673</v>
+        <v>99.5883333333334</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F229" t="n">
-        <v>5</v>
+        <v>259.3337</v>
       </c>
       <c r="G229" t="n">
-        <v>99.45666666666673</v>
+        <v>99.50666666666673</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6339,21 +7028,24 @@
         <v>100</v>
       </c>
       <c r="C230" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D230" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E230" t="n">
         <v>100</v>
       </c>
       <c r="F230" t="n">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="G230" t="n">
         <v>99.45666666666673</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C231" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="D231" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="E231" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F231" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G231" t="n">
-        <v>99.3783333333334</v>
+        <v>99.45666666666673</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C232" t="n">
-        <v>102</v>
+        <v>98.3</v>
       </c>
       <c r="D232" t="n">
-        <v>102</v>
+        <v>98.3</v>
       </c>
       <c r="E232" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F232" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G232" t="n">
-        <v>99.36166666666674</v>
+        <v>99.3783333333334</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,544 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>98.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C233" t="n">
-        <v>98.40000000000001</v>
+        <v>102</v>
       </c>
       <c r="D233" t="n">
-        <v>98.40000000000001</v>
+        <v>102</v>
       </c>
       <c r="E233" t="n">
-        <v>98.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="F233" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G233" t="n">
-        <v>99.28500000000007</v>
+        <v>99.36166666666674</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="F234" t="n">
-        <v>400</v>
-      </c>
-      <c r="G234" t="n">
-        <v>99.22166666666674</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C235" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D235" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E235" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F235" t="n">
-        <v>800</v>
-      </c>
-      <c r="G235" t="n">
-        <v>99.16000000000007</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C236" t="n">
-        <v>102</v>
-      </c>
-      <c r="D236" t="n">
-        <v>102</v>
-      </c>
-      <c r="E236" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3800</v>
-      </c>
-      <c r="G236" t="n">
-        <v>99.1433333333334</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>101</v>
-      </c>
-      <c r="C237" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D237" t="n">
-        <v>103</v>
-      </c>
-      <c r="E237" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F237" t="n">
-        <v>4700</v>
-      </c>
-      <c r="G237" t="n">
-        <v>99.05833333333339</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>102</v>
-      </c>
-      <c r="C238" t="n">
-        <v>99</v>
-      </c>
-      <c r="D238" t="n">
-        <v>103</v>
-      </c>
-      <c r="E238" t="n">
-        <v>99</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G238" t="n">
-        <v>98.99166666666673</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>102</v>
-      </c>
-      <c r="C239" t="n">
-        <v>102</v>
-      </c>
-      <c r="D239" t="n">
-        <v>102</v>
-      </c>
-      <c r="E239" t="n">
-        <v>102</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5</v>
-      </c>
-      <c r="G239" t="n">
-        <v>98.99166666666673</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>102</v>
-      </c>
-      <c r="C240" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D240" t="n">
-        <v>104</v>
-      </c>
-      <c r="E240" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G240" t="n">
-        <v>98.95666666666672</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>103</v>
-      </c>
-      <c r="C241" t="n">
-        <v>103</v>
-      </c>
-      <c r="D241" t="n">
-        <v>103</v>
-      </c>
-      <c r="E241" t="n">
-        <v>103</v>
-      </c>
-      <c r="F241" t="n">
-        <v>18.257</v>
-      </c>
-      <c r="G241" t="n">
-        <v>99.01000000000005</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>101</v>
-      </c>
-      <c r="C242" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D242" t="n">
-        <v>104</v>
-      </c>
-      <c r="E242" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G242" t="n">
-        <v>99.00833333333338</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>99</v>
-      </c>
-      <c r="C243" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D243" t="n">
-        <v>99</v>
-      </c>
-      <c r="E243" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F243" t="n">
-        <v>400</v>
-      </c>
-      <c r="G243" t="n">
-        <v>99.0066666666667</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>99</v>
-      </c>
-      <c r="C244" t="n">
-        <v>104</v>
-      </c>
-      <c r="D244" t="n">
-        <v>104</v>
-      </c>
-      <c r="E244" t="n">
-        <v>99</v>
-      </c>
-      <c r="F244" t="n">
-        <v>558.691</v>
-      </c>
-      <c r="G244" t="n">
-        <v>99.09000000000005</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>101</v>
-      </c>
-      <c r="C245" t="n">
-        <v>103</v>
-      </c>
-      <c r="D245" t="n">
-        <v>103</v>
-      </c>
-      <c r="E245" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F245" t="n">
-        <v>897.8185999999999</v>
-      </c>
-      <c r="G245" t="n">
-        <v>99.14333333333337</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>103</v>
-      </c>
-      <c r="C246" t="n">
-        <v>103</v>
-      </c>
-      <c r="D246" t="n">
-        <v>103</v>
-      </c>
-      <c r="E246" t="n">
-        <v>103</v>
-      </c>
-      <c r="F246" t="n">
-        <v>3539.1814</v>
-      </c>
-      <c r="G246" t="n">
-        <v>99.19333333333337</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>103</v>
-      </c>
-      <c r="C247" t="n">
-        <v>103</v>
-      </c>
-      <c r="D247" t="n">
-        <v>103</v>
-      </c>
-      <c r="E247" t="n">
-        <v>103</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G247" t="n">
-        <v>99.2716666666667</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>103</v>
-      </c>
-      <c r="C248" t="n">
-        <v>105</v>
-      </c>
-      <c r="D248" t="n">
-        <v>105</v>
-      </c>
-      <c r="E248" t="n">
-        <v>103</v>
-      </c>
-      <c r="F248" t="n">
-        <v>4313.1896</v>
-      </c>
-      <c r="G248" t="n">
-        <v>99.35500000000003</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>105</v>
-      </c>
-      <c r="C249" t="n">
-        <v>105</v>
-      </c>
-      <c r="D249" t="n">
-        <v>105</v>
-      </c>
-      <c r="E249" t="n">
-        <v>105</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1572.3436</v>
-      </c>
-      <c r="G249" t="n">
-        <v>99.46333333333337</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>104</v>
-      </c>
-      <c r="C250" t="n">
-        <v>103</v>
-      </c>
-      <c r="D250" t="n">
-        <v>107</v>
-      </c>
-      <c r="E250" t="n">
-        <v>103</v>
-      </c>
-      <c r="F250" t="n">
-        <v>59152.5796</v>
-      </c>
-      <c r="G250" t="n">
-        <v>99.51666666666669</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>104</v>
-      </c>
-      <c r="C251" t="n">
-        <v>103</v>
-      </c>
-      <c r="D251" t="n">
-        <v>104</v>
-      </c>
-      <c r="E251" t="n">
-        <v>103</v>
-      </c>
-      <c r="F251" t="n">
-        <v>2392</v>
-      </c>
-      <c r="G251" t="n">
-        <v>99.59000000000002</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>103</v>
-      </c>
-      <c r="C252" t="n">
-        <v>103</v>
-      </c>
-      <c r="D252" t="n">
-        <v>103</v>
-      </c>
-      <c r="E252" t="n">
-        <v>103</v>
-      </c>
-      <c r="F252" t="n">
-        <v>7096.4117</v>
-      </c>
-      <c r="G252" t="n">
-        <v>99.66333333333336</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>106</v>
-      </c>
-      <c r="C253" t="n">
-        <v>106</v>
-      </c>
-      <c r="D253" t="n">
-        <v>106</v>
-      </c>
-      <c r="E253" t="n">
-        <v>106</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2850.08490566</v>
-      </c>
-      <c r="G253" t="n">
-        <v>99.79500000000002</v>
-      </c>
-      <c r="H253" t="n">
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
